--- a/main/data/merge_k_lists.xlsx
+++ b/main/data/merge_k_lists.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.26812934875488</v>
+        <v>18.65696907043457</v>
       </c>
       <c r="D2" t="n">
-        <v>1087</v>
+        <v>196</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44.57187652587891</v>
+        <v>17.5330638885498</v>
       </c>
       <c r="D3" t="n">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.43692970275879</v>
+        <v>17.13275909423828</v>
       </c>
       <c r="D4" t="n">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26.21269226074219</v>
+        <v>17.27819442749023</v>
       </c>
       <c r="D5" t="n">
-        <v>903</v>
+        <v>193</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.28107643127441</v>
+        <v>17.37117767333984</v>
       </c>
       <c r="D6" t="n">
-        <v>639</v>
+        <v>182</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/merge_k_lists.xlsx
+++ b/main/data/merge_k_lists.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.65696907043457</v>
+        <v>17.9448127746582</v>
       </c>
       <c r="D2" t="n">
         <v>196</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.5330638885498</v>
+        <v>16.74294471740723</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.13275909423828</v>
+        <v>16.49188995361328</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.27819442749023</v>
+        <v>17.51899719238281</v>
       </c>
       <c r="D5" t="n">
         <v>193</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.37117767333984</v>
+        <v>17.96793937683105</v>
       </c>
       <c r="D6" t="n">
         <v>182</v>

--- a/main/data/merge_k_lists.xlsx
+++ b/main/data/merge_k_lists.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.9448127746582</v>
+        <v>19.00506019592285</v>
       </c>
       <c r="D2" t="n">
         <v>196</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.74294471740723</v>
+        <v>17.84777641296387</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.49188995361328</v>
+        <v>17.79007911682129</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.51899719238281</v>
+        <v>17.98081398010254</v>
       </c>
       <c r="D5" t="n">
         <v>193</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.96793937683105</v>
+        <v>18.0962085723877</v>
       </c>
       <c r="D6" t="n">
         <v>182</v>
